--- a/classfiers/bottleneck/elm/nearmiss/bottleneck_elm_rbf_linf_nearmiss_results.xlsx
+++ b/classfiers/bottleneck/elm/nearmiss/bottleneck_elm_rbf_linf_nearmiss_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.275</v>
+        <v>0.3214285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4294117647058823</v>
+        <v>0.3068181818181818</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4809941520467837</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.275</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3859375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3692686833505332</v>
+        <v>0.3425541125541126</v>
       </c>
     </row>
   </sheetData>
